--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B29D6EE-8733-48F7-9822-357BFF106A94}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F473958F-72AA-4A98-BE3C-A29DA4A7CFF3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>15-lv*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(lv*0.1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -412,9 +424,10 @@
     <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -427,8 +440,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -444,8 +460,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -458,8 +477,11 @@
       <c r="E3">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -472,8 +494,11 @@
       <c r="E4">
         <v>5</v>
       </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -486,8 +511,11 @@
       <c r="E5">
         <v>5</v>
       </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -499,6 +527,9 @@
       </c>
       <c r="E6">
         <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F473958F-72AA-4A98-BE3C-A29DA4A7CFF3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC5053-BD08-4715-9204-2CFD892C5E71}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冷却（秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15-lv*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>demage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +79,26 @@
   </si>
   <si>
     <t>2+(lv*0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000-lv*2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却（毫秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000-lv*2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5+(lv*0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+(lv*0.1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +427,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -435,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -455,13 +467,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -469,16 +481,16 @@
         <v>100001</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -486,16 +498,16 @@
         <v>100002</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -503,16 +515,16 @@
         <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -520,16 +532,16 @@
         <v>100004</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC5053-BD08-4715-9204-2CFD892C5E71}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AC891-0FD4-4F86-A679-B114C7EE658C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>1+(lv*0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-(lv*2)</t>
+  </si>
+  <si>
+    <t>30-(lv*2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用消耗蓝量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,22 +439,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -455,8 +472,11 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -475,8 +495,11 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -492,8 +515,11 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -509,8 +535,11 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -526,8 +555,11 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -542,6 +574,9 @@
       </c>
       <c r="F6" t="s">
         <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AC891-0FD4-4F86-A679-B114C7EE658C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0CA1C-FCCB-483C-AB66-994B1E4B92CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>使用消耗蓝量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有几率触发buff（buffId:概率，...）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -453,10 +466,10 @@
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="18.21875" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -475,8 +488,11 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -498,8 +514,11 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -518,8 +537,11 @@
       <c r="G3" t="s">
         <v>22</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -538,8 +560,11 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -558,8 +583,11 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -577,6 +605,9 @@
       </c>
       <c r="G6" t="s">
         <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0CA1C-FCCB-483C-AB66-994B1E4B92CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E434E95-1D95-4B19-994C-4227CF38B352}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>3:0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重锤火花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞翔斩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -610,6 +618,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>200001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>200002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E434E95-1D95-4B19-994C-4227CF38B352}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB09B31-43D5-451D-A3F5-AF5A3B417448}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>飞翔斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +467,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -569,7 +573,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB09B31-43D5-451D-A3F5-AF5A3B417448}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605D40D-2EFC-4BC3-8C3B-7916D5C4CEB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>2:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000-lv*2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +471,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -629,8 +633,17 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
       <c r="F7">
         <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -640,8 +653,17 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
       <c r="F8">
         <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605D40D-2EFC-4BC3-8C3B-7916D5C4CEB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D6213-DC9E-43AB-ADB9-09F8C706EB44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D6213-DC9E-43AB-ADB9-09F8C706EB44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8886EBF-46FC-4B23-BB02-C5508A9599C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>30000-lv*2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +475,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -665,6 +669,9 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8886EBF-46FC-4B23-BB02-C5508A9599C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06EF11-988C-4232-A14D-1ACC0490F501}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -591,21 +591,19 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06EF11-988C-4232-A14D-1ACC0490F501}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A299B06-9D56-43C4-8FFB-1ABFCA0C6A4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>2:0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜降冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000-lv*2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,7 +501,7 @@
     <col min="8" max="8" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -512,7 +524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -537,8 +549,11 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -560,8 +575,11 @@
       <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -583,8 +601,11 @@
       <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -604,8 +625,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -627,8 +651,11 @@
       <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200001</v>
       </c>
@@ -647,8 +674,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200002</v>
       </c>
@@ -669,6 +699,32 @@
       </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>300001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A299B06-9D56-43C4-8FFB-1ABFCA0C6A4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28CADDA-9F22-4AD8-96C9-58F2F8D1F0C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50000-lv*2000</t>
+    <t>2:0.2,4:0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +487,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,17 +711,20 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
+      <c r="D9">
+        <v>10000</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28CADDA-9F22-4AD8-96C9-58F2F8D1F0C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B83F9D1-2DED-4BCD-8C5D-6E07A9B5FB38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30000-lv*2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2:0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,6 +154,14 @@
   </si>
   <si>
     <t>2:0.2,4:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000-lv*2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000-lv*2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +491,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -550,7 +554,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -663,7 +667,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -686,7 +690,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -698,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -709,10 +713,10 @@
         <v>300001</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -724,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B83F9D1-2DED-4BCD-8C5D-6E07A9B5FB38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACCECA1-2493-4B7A-A90B-2231C78AA143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
         <v>32</v>
       </c>
       <c r="D9">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="E9">
         <v>5</v>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACCECA1-2493-4B7A-A90B-2231C78AA143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A4AFDA-38FE-4C8D-8AA1-E274A5AFBE0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>demage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2+(lv*0.1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +154,83 @@
   </si>
   <si>
     <t>100000-lv*2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否全部作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效逻辑：
+1：攻击
+2：加Buff
+3：治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用目标类型：
+1：自己
+2：友方
+3：特定目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星之灌注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗一名友方英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+(lv*2)</t>
+  </si>
+  <si>
+    <t>20+(lv*2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮忙，皮克斯！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为友方英雄提供护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉库拉姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方全体加护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,15 +274,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -233,7 +373,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -488,24 +628,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -513,22 +657,31 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -545,19 +698,25 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -565,25 +724,31 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -597,19 +762,25 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -632,8 +803,14 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -641,33 +818,39 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200001</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -681,16 +864,22 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200002</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -702,18 +891,27 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300001</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
       </c>
       <c r="D9">
         <v>60000</v>
@@ -728,10 +926,145 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>5000</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>5000</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A4AFDA-38FE-4C8D-8AA1-E274A5AFBE0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C723017-83CE-4CA2-9D8F-98A8FCBCB5CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,30 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圣灵之剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万佛归一破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻舞飞扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2+(lv*0.1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15000-lv*2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却（毫秒）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,43 +97,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3:0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重锤火花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞翔斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effectAll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰霜降冻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:0.2,4:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25000-lv*2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000-lv*2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星之灌注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治疗一名友方英雄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,23 +158,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祈愿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮忙，皮克斯！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为友方英雄提供护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拉库拉姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>友方全体加护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣灵之剑（测cd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰掌（测技能等级公式打出伤害值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜降冻（测全屏攻击）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星之灌注（测友方单体治疗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈愿（测友方全体治疗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮忙，皮克斯！（测友方单体加Buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉库拉姆（测友方群体加Buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃（测特定目标加Buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对特定目标施加持续扣血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻舞飞扬（测攻击后概率刷出护盾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000-lv*2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万佛归一破（必杀,方便测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重锤火花（测怪物攻击技能1,cd长,可刷出毒Buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞翔斩（怪物攻击技能2,cd短,可刷出晕眩,护盾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:0.5,3:0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,12 +278,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -628,22 +633,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" customWidth="1"/>
@@ -657,28 +662,28 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -698,46 +703,44 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100001</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -750,10 +753,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -762,14 +765,12 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -782,10 +783,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>100003</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -794,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -812,25 +813,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100004</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -844,13 +845,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>200001</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -861,6 +862,9 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
@@ -873,13 +877,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>200002</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -891,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -905,16 +909,16 @@
     </row>
     <row r="9" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>300001</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -925,9 +929,7 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" t="b">
         <v>1</v>
       </c>
@@ -943,19 +945,19 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>20</v>
@@ -976,19 +978,19 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -1008,22 +1010,25 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1040,23 +1045,26 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
+      <c r="H13" s="3">
+        <v>0.12569444444444444</v>
+      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
@@ -1065,6 +1073,41 @@
       </c>
       <c r="K13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C723017-83CE-4CA2-9D8F-98A8FCBCB5CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8917A4C6-4AD8-4820-B597-0458D7E59C5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>4:0.5,3:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,13 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -636,13 +639,13 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -989,8 +992,8 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
-        <v>31</v>
+      <c r="F11">
+        <v>60</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -1062,8 +1065,8 @@
       <c r="G13">
         <v>20</v>
       </c>
-      <c r="H13" s="3">
-        <v>0.12569444444444444</v>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1097,8 +1100,8 @@
       <c r="G14">
         <v>20</v>
       </c>
-      <c r="H14" s="3">
-        <v>0.20902777777777778</v>
+      <c r="H14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>

--- a/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfgExcel_com.wan37.config.entity.SkillCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8917A4C6-4AD8-4820-B597-0458D7E59C5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4364B7-9C8B-483F-8623-F7FE7B9D1717}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,127 +118,140 @@
   </si>
   <si>
     <t>是否全部作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗一名友方英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+(lv*2)</t>
+  </si>
+  <si>
+    <t>20+(lv*2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为友方英雄提供护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方全体加护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣灵之剑（测cd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰掌（测技能等级公式打出伤害值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜降冻（测全屏攻击）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星之灌注（测友方单体治疗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈愿（测友方全体治疗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮忙，皮克斯！（测友方单体加Buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉库拉姆（测友方群体加Buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃（测特定目标加Buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对特定目标施加持续扣血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻舞飞扬（测攻击后概率刷出护盾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000-lv*2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万佛归一破（必杀,方便测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重锤火花（测怪物攻击技能1,cd长,可刷出毒Buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞翔斩（怪物攻击技能2,cd短,可刷出晕眩,护盾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:0.5,3:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤火熊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生效逻辑：
 1：攻击
 2：加Buff
-3：治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
+3：治疗
+4：召唤兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提伯斯之怒（测召唤兽,全体晕眩）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>作用目标类型：
 1：自己
 2：友方
-3：特定目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗一名友方英雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20+(lv*2)</t>
-  </si>
-  <si>
-    <t>20+(lv*2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为友方英雄提供护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友方全体加护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣灵之剑（测cd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰掌（测技能等级公式打出伤害值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜降冻（测全屏攻击）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星之灌注（测友方单体治疗）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈愿（测友方全体治疗）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮忙，皮克斯！（测友方单体加Buff）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉库拉姆（测友方群体加Buff）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点燃（测特定目标加Buff）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对特定目标施加持续扣血效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻舞飞扬（测攻击后概率刷出护盾）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000-lv*2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万佛归一破（必杀,方便测试）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重锤火花（测怪物攻击技能1,cd长,可刷出毒Buff）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞翔斩（怪物攻击技能2,cd短,可刷出晕眩,护盾）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:0.5,3:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:1</t>
+3：敌人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +394,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -636,17 +649,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="46.21875" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" customWidth="1"/>
@@ -655,6 +668,7 @@
     <col min="9" max="9" width="15.44140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -683,10 +697,10 @@
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -706,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -721,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -729,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -759,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -789,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -819,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -834,7 +848,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -851,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -866,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -883,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -898,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -915,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -948,10 +962,10 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -960,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>20</v>
@@ -981,7 +995,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1013,10 +1027,10 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1025,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1048,10 +1062,10 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1060,13 +1074,13 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1083,10 +1097,10 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -1095,13 +1109,13 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1111,6 +1125,46 @@
       </c>
       <c r="K14">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>20000</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
